--- a/regions/10/garemos dacva/garemos dacva.xlsx
+++ b/regions/10/garemos dacva/garemos dacva.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA100842-8ADE-4AFB-B5CA-6AF7B67E7865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="თბილისი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
   <si>
     <t>...</t>
   </si>
@@ -94,13 +93,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#\ ##0.0"/>
     <numFmt numFmtId="165" formatCode="##\ ##0.0"/>
     <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +155,13 @@
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -238,16 +245,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -343,23 +357,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -395,23 +392,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -587,11 +567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -600,20 +580,22 @@
     <col min="2" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="11">
         <v>2013</v>
@@ -639,8 +621,14 @@
       <c r="I2" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="11">
+        <v>2021</v>
+      </c>
+      <c r="K2" s="11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -668,8 +656,14 @@
       <c r="I3" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -697,8 +691,14 @@
       <c r="I4" s="8">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="K4" s="8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -726,8 +726,14 @@
       <c r="I5" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -755,8 +761,14 @@
       <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -773,19 +785,25 @@
         <v>59.5</v>
       </c>
       <c r="F7" s="9">
-        <v>28.1</v>
+        <v>159.9</v>
       </c>
       <c r="G7" s="9">
-        <v>22.6</v>
+        <v>135.1</v>
       </c>
       <c r="H7" s="9">
-        <v>26.7</v>
+        <v>186.3</v>
       </c>
       <c r="I7" s="9">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="J7" s="9">
+        <v>145.9</v>
+      </c>
+      <c r="K7" s="9">
+        <v>139.80000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -797,8 +815,10 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -815,19 +835,25 @@
         <v>57.7</v>
       </c>
       <c r="F9" s="9">
-        <v>26.2</v>
+        <v>157.9</v>
       </c>
       <c r="G9" s="9">
-        <v>18.2</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="H9" s="9">
-        <v>23.5</v>
+        <v>184.3</v>
       </c>
       <c r="I9" s="9">
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>149.1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>143.5</v>
+      </c>
+      <c r="K9" s="9">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
@@ -844,125 +870,169 @@
         <v>1.8</v>
       </c>
       <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="10">
         <v>1.9</v>
       </c>
-      <c r="G10" s="10">
-        <v>4.4000000000000004</v>
-      </c>
       <c r="H10" s="10">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="I10" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+        <v>2.7</v>
+      </c>
+      <c r="J10" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="K10" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -970,11 +1040,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regions/10/garemos dacva/garemos dacva.xlsx
+++ b/regions/10/garemos dacva/garemos dacva.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="თბილისი" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
   <si>
     <t>...</t>
   </si>
@@ -568,19 +568,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="68.85546875" style="3" customWidth="1"/>
-    <col min="2" max="9" width="9.7109375" customWidth="1"/>
+    <col min="2" max="12" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
@@ -594,8 +594,9 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="11">
         <v>2013</v>
@@ -627,8 +628,11 @@
       <c r="K2" s="11">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -662,8 +666,11 @@
       <c r="K3" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -697,8 +704,11 @@
       <c r="K4" s="8">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -732,8 +742,11 @@
       <c r="K5" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -767,8 +780,11 @@
       <c r="K6" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -800,10 +816,13 @@
         <v>145.9</v>
       </c>
       <c r="K7" s="9">
-        <v>139.80000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="L7" s="9">
+        <v>167.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -817,8 +836,9 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -850,10 +870,13 @@
         <v>143.5</v>
       </c>
       <c r="K9" s="9">
-        <v>137.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>136.6</v>
+      </c>
+      <c r="L9" s="9">
+        <v>165.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
@@ -887,8 +910,11 @@
       <c r="K10" s="10">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="10">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
@@ -902,8 +928,9 @@
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
@@ -917,8 +944,9 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>13</v>
       </c>
@@ -932,8 +960,9 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>8</v>
       </c>
@@ -947,8 +976,9 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="20"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1040,11 +1070,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
